--- a/src/outputs/New folder/4-data_countries.xlsx
+++ b/src/outputs/New folder/4-data_countries.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>26</v>
@@ -452,28 +452,28 @@
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
         <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
         <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
         <v>39</v>
       </c>
       <c r="L2" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -483,40 +483,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
+        <v>46</v>
+      </c>
+      <c r="K3" t="n">
         <v>40</v>
       </c>
-      <c r="K3" t="n">
-        <v>37</v>
-      </c>
       <c r="L3" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M3" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -526,40 +526,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
         <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" t="n">
         <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -569,40 +569,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
         <v>23</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
         <v>23</v>
       </c>
       <c r="J5" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K5" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>13</v>
@@ -630,22 +630,22 @@
         <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
         <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K6" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>38</v>
       </c>
       <c r="M6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -655,40 +655,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K7" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L7" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M7" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -701,37 +701,37 @@
         <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
         <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
         <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
+        <v>37</v>
+      </c>
+      <c r="L8" t="n">
+        <v>33</v>
+      </c>
+      <c r="M8" t="n">
         <v>32</v>
-      </c>
-      <c r="L8" t="n">
-        <v>31</v>
-      </c>
-      <c r="M8" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -741,40 +741,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J9" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K9" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L9" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M9" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -784,40 +784,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K10" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L10" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -830,13 +830,13 @@
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
         <v>21</v>
@@ -845,22 +845,22 @@
         <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I11" t="n">
         <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L11" t="n">
         <v>36</v>
       </c>
       <c r="M11" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -870,40 +870,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" t="n">
+        <v>40</v>
+      </c>
+      <c r="K12" t="n">
+        <v>38</v>
+      </c>
+      <c r="L12" t="n">
         <v>31</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>31</v>
-      </c>
-      <c r="L12" t="n">
-        <v>27</v>
-      </c>
-      <c r="M12" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -925,13 +925,13 @@
         <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
         <v>25</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I13" t="n">
         <v>25</v>
@@ -943,10 +943,10 @@
         <v>43</v>
       </c>
       <c r="L13" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -956,40 +956,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K14" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L14" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -1002,37 +1002,37 @@
         <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
+        <v>43</v>
+      </c>
+      <c r="K15" t="n">
         <v>37</v>
       </c>
-      <c r="K15" t="n">
-        <v>29</v>
-      </c>
       <c r="L15" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M15" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1042,40 +1042,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
+        <v>46</v>
+      </c>
+      <c r="K16" t="n">
+        <v>43</v>
+      </c>
+      <c r="L16" t="n">
+        <v>38</v>
+      </c>
+      <c r="M16" t="n">
         <v>37</v>
-      </c>
-      <c r="K16" t="n">
-        <v>34</v>
-      </c>
-      <c r="L16" t="n">
-        <v>31</v>
-      </c>
-      <c r="M16" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1085,40 +1085,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J17" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K17" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L17" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M17" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -1128,40 +1128,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
         <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
         <v>23</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
         <v>21</v>
       </c>
       <c r="H18" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
         <v>21</v>
       </c>
       <c r="J18" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K18" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L18" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M18" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -1171,40 +1171,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
         <v>25</v>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I19" t="n">
         <v>25</v>
       </c>
       <c r="J19" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K19" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -1214,40 +1214,40 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" t="n">
+        <v>21</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19</v>
+      </c>
+      <c r="G20" t="n">
+        <v>14</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
         <v>13</v>
       </c>
-      <c r="C20" t="n">
-        <v>19</v>
-      </c>
-      <c r="D20" t="n">
-        <v>13</v>
-      </c>
-      <c r="E20" t="n">
-        <v>16</v>
-      </c>
-      <c r="F20" t="n">
-        <v>13</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10</v>
-      </c>
-      <c r="H20" t="n">
-        <v>13</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
       <c r="J20" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L20" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M20" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -1257,40 +1257,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
         <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K21" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L21" t="n">
+        <v>41</v>
+      </c>
+      <c r="M21" t="n">
         <v>40</v>
-      </c>
-      <c r="M21" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -1300,40 +1300,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
         <v>18</v>
       </c>
       <c r="J22" t="n">
+        <v>34</v>
+      </c>
+      <c r="K22" t="n">
+        <v>35</v>
+      </c>
+      <c r="L22" t="n">
+        <v>32</v>
+      </c>
+      <c r="M22" t="n">
         <v>29</v>
-      </c>
-      <c r="K22" t="n">
-        <v>32</v>
-      </c>
-      <c r="L22" t="n">
-        <v>28</v>
-      </c>
-      <c r="M22" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1343,40 +1343,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J23" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K23" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L23" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M23" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -1386,40 +1386,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K24" t="n">
+        <v>38</v>
+      </c>
+      <c r="L24" t="n">
+        <v>34</v>
+      </c>
+      <c r="M24" t="n">
         <v>32</v>
-      </c>
-      <c r="L24" t="n">
-        <v>31</v>
-      </c>
-      <c r="M24" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1429,40 +1429,40 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>19</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16</v>
+      </c>
+      <c r="E25" t="n">
         <v>13</v>
       </c>
-      <c r="C25" t="n">
-        <v>13</v>
-      </c>
-      <c r="D25" t="n">
-        <v>13</v>
-      </c>
-      <c r="E25" t="n">
-        <v>10</v>
-      </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I25" t="n">
         <v>8</v>
       </c>
       <c r="J25" t="n">
+        <v>36</v>
+      </c>
+      <c r="K25" t="n">
+        <v>29</v>
+      </c>
+      <c r="L25" t="n">
+        <v>29</v>
+      </c>
+      <c r="M25" t="n">
         <v>26</v>
-      </c>
-      <c r="K25" t="n">
-        <v>23</v>
-      </c>
-      <c r="L25" t="n">
-        <v>21</v>
-      </c>
-      <c r="M25" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -1472,40 +1472,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C26" t="n">
         <v>29</v>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G26" t="n">
         <v>24</v>
       </c>
       <c r="H26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I26" t="n">
         <v>24</v>
       </c>
       <c r="J26" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K26" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L26" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M26" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1515,40 +1515,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C27" t="n">
         <v>16</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E27" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>17</v>
+      </c>
+      <c r="G27" t="n">
         <v>14</v>
       </c>
-      <c r="F27" t="n">
-        <v>9</v>
-      </c>
-      <c r="G27" t="n">
-        <v>13</v>
-      </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J27" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K27" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L27" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M27" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -1558,40 +1558,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I28" t="n">
         <v>18</v>
       </c>
       <c r="J28" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K28" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L28" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M28" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -1601,40 +1601,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E29" t="n">
         <v>24</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I29" t="n">
         <v>23</v>
       </c>
       <c r="J29" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K29" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L29" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M29" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F30" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G30" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J30" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K30" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L30" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
         <v>23</v>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31" t="n">
         <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G31" t="n">
         <v>18</v>
       </c>
       <c r="H31" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I31" t="n">
         <v>17</v>
       </c>
       <c r="J31" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K31" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L31" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C32" t="n">
         <v>26</v>
       </c>
       <c r="D32" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32" t="n">
         <v>22</v>
       </c>
       <c r="F32" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G32" t="n">
         <v>21</v>
       </c>
       <c r="H32" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I32" t="n">
         <v>21</v>
       </c>
       <c r="J32" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K32" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L32" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M32" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -1773,40 +1773,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F33" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H33" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J33" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K33" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L33" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M33" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
@@ -1816,40 +1816,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E34" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J34" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K34" t="n">
+        <v>49</v>
+      </c>
+      <c r="L34" t="n">
+        <v>44</v>
+      </c>
+      <c r="M34" t="n">
         <v>43</v>
-      </c>
-      <c r="L34" t="n">
-        <v>42</v>
-      </c>
-      <c r="M34" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -1859,16 +1859,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F35" t="n">
         <v>9</v>
@@ -1883,10 +1883,10 @@
         <v>17</v>
       </c>
       <c r="J35" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K35" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L35" t="n">
         <v>26</v>
@@ -1902,16 +1902,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F36" t="n">
         <v>9</v>
@@ -1926,10 +1926,10 @@
         <v>21</v>
       </c>
       <c r="J36" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K36" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L36" t="n">
         <v>30</v>
@@ -1945,40 +1945,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D37" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E37" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F37" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I37" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J37" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K37" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L37" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M37" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -1988,40 +1988,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E38" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J38" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K38" t="n">
+        <v>49</v>
+      </c>
+      <c r="L38" t="n">
+        <v>44</v>
+      </c>
+      <c r="M38" t="n">
         <v>43</v>
-      </c>
-      <c r="L38" t="n">
-        <v>42</v>
-      </c>
-      <c r="M38" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -2031,40 +2031,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E39" t="n">
         <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" t="n">
+        <v>15</v>
+      </c>
+      <c r="H39" t="n">
+        <v>15</v>
+      </c>
+      <c r="I39" t="n">
         <v>14</v>
       </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
       <c r="J39" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K39" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L39" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M39" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -2074,40 +2074,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C40" t="n">
         <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
         <v>20</v>
       </c>
       <c r="F40" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G40" t="n">
         <v>19</v>
       </c>
       <c r="H40" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I40" t="n">
         <v>18</v>
       </c>
       <c r="J40" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K40" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L40" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M40" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
@@ -2117,40 +2117,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E41" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F41" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G41" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H41" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I41" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J41" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K41" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L41" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M41" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -2160,40 +2160,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D42" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F42" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G42" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H42" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J42" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K42" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L42" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M42" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
@@ -2203,40 +2203,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F43" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G43" t="n">
         <v>17</v>
       </c>
       <c r="H43" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I43" t="n">
         <v>17</v>
       </c>
       <c r="J43" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K43" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L43" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M43" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
@@ -2246,40 +2246,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F44" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H44" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I44" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J44" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K44" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="L44" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M44" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -2289,40 +2289,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D45" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E45" t="n">
+        <v>22</v>
+      </c>
+      <c r="F45" t="n">
+        <v>16</v>
+      </c>
+      <c r="G45" t="n">
+        <v>15</v>
+      </c>
+      <c r="H45" t="n">
         <v>14</v>
       </c>
-      <c r="F45" t="n">
-        <v>13</v>
-      </c>
-      <c r="G45" t="n">
-        <v>10</v>
-      </c>
-      <c r="H45" t="n">
-        <v>13</v>
-      </c>
       <c r="I45" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J45" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K45" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L45" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M45" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -2332,40 +2332,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C46" t="n">
         <v>24</v>
       </c>
       <c r="D46" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E46" t="n">
         <v>27</v>
       </c>
       <c r="F46" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G46" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H46" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I46" t="n">
         <v>18</v>
       </c>
       <c r="J46" t="n">
+        <v>40</v>
+      </c>
+      <c r="K46" t="n">
+        <v>43</v>
+      </c>
+      <c r="L46" t="n">
+        <v>38</v>
+      </c>
+      <c r="M46" t="n">
         <v>37</v>
-      </c>
-      <c r="K46" t="n">
-        <v>40</v>
-      </c>
-      <c r="L46" t="n">
-        <v>32</v>
-      </c>
-      <c r="M46" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -2375,40 +2375,40 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C47" t="n">
         <v>21</v>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E47" t="n">
         <v>22</v>
       </c>
       <c r="F47" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G47" t="n">
         <v>21</v>
       </c>
       <c r="H47" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I47" t="n">
         <v>22</v>
       </c>
       <c r="J47" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K47" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L47" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M47" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48">
@@ -2418,40 +2418,40 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C48" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D48" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F48" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H48" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J48" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K48" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L48" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M48" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
@@ -2461,40 +2461,40 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D49" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E49" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
         <v>25</v>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I49" t="n">
         <v>25</v>
       </c>
       <c r="J49" t="n">
+        <v>41</v>
+      </c>
+      <c r="K49" t="n">
+        <v>39</v>
+      </c>
+      <c r="L49" t="n">
+        <v>36</v>
+      </c>
+      <c r="M49" t="n">
         <v>35</v>
-      </c>
-      <c r="K49" t="n">
-        <v>34</v>
-      </c>
-      <c r="L49" t="n">
-        <v>34</v>
-      </c>
-      <c r="M49" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -2504,40 +2504,40 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D50" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F50" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H50" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J50" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K50" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M50" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51">
@@ -2547,40 +2547,40 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C51" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F51" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G51" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H51" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I51" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J51" t="n">
+        <v>39</v>
+      </c>
+      <c r="K51" t="n">
         <v>33</v>
       </c>
-      <c r="K51" t="n">
-        <v>29</v>
-      </c>
       <c r="L51" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M51" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
@@ -2593,37 +2593,37 @@
         <v>17</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
         <v>17</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G52" t="n">
+        <v>11</v>
+      </c>
+      <c r="H52" t="n">
+        <v>16</v>
+      </c>
+      <c r="I52" t="n">
         <v>9</v>
       </c>
-      <c r="H52" t="n">
-        <v>13</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
       <c r="J52" t="n">
+        <v>32</v>
+      </c>
+      <c r="K52" t="n">
+        <v>27</v>
+      </c>
+      <c r="L52" t="n">
         <v>29</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>25</v>
-      </c>
-      <c r="L52" t="n">
-        <v>26</v>
-      </c>
-      <c r="M52" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -2633,40 +2633,40 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E53" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G53" t="n">
         <v>16</v>
       </c>
       <c r="H53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I53" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J53" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K53" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L53" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M53" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
@@ -2676,40 +2676,40 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I54" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J54" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K54" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L54" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M54" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
@@ -2719,40 +2719,40 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C55" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D55" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E55" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F55" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H55" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I55" t="n">
         <v>21</v>
       </c>
       <c r="J55" t="n">
+        <v>45</v>
+      </c>
+      <c r="K55" t="n">
+        <v>39</v>
+      </c>
+      <c r="L55" t="n">
+        <v>39</v>
+      </c>
+      <c r="M55" t="n">
         <v>38</v>
-      </c>
-      <c r="K55" t="n">
-        <v>28</v>
-      </c>
-      <c r="L55" t="n">
-        <v>34</v>
-      </c>
-      <c r="M55" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -2762,40 +2762,40 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F56" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J56" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K56" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L56" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M56" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
@@ -2805,40 +2805,40 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C57" t="n">
         <v>26</v>
       </c>
       <c r="D57" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E57" t="n">
         <v>26</v>
       </c>
       <c r="F57" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G57" t="n">
         <v>21</v>
       </c>
       <c r="H57" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I57" t="n">
         <v>21</v>
       </c>
       <c r="J57" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K57" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L57" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M57" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
@@ -2848,40 +2848,40 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C58" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E58" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F58" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G58" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H58" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J58" t="n">
+        <v>38</v>
+      </c>
+      <c r="K58" t="n">
+        <v>36</v>
+      </c>
+      <c r="L58" t="n">
+        <v>36</v>
+      </c>
+      <c r="M58" t="n">
         <v>33</v>
-      </c>
-      <c r="K58" t="n">
-        <v>29</v>
-      </c>
-      <c r="L58" t="n">
-        <v>33</v>
-      </c>
-      <c r="M58" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="59">
@@ -2891,40 +2891,40 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C59" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E59" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G59" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H59" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I59" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J59" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K59" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L59" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M59" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -2934,40 +2934,40 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D60" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F60" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G60" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H60" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I60" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J60" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K60" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="L60" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M60" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
@@ -2977,40 +2977,40 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E61" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F61" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G61" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H61" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J61" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K61" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L61" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M61" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -3020,40 +3020,40 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E62" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F62" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G62" t="n">
         <v>15</v>
       </c>
       <c r="H62" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I62" t="n">
         <v>19</v>
       </c>
       <c r="J62" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K62" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L62" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M62" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
@@ -3069,19 +3069,19 @@
         <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E63" t="n">
         <v>19</v>
       </c>
       <c r="F63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G63" t="n">
         <v>18</v>
       </c>
       <c r="H63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I63" t="n">
         <v>21</v>
@@ -3090,13 +3090,13 @@
         <v>28</v>
       </c>
       <c r="K63" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L63" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M63" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
@@ -3106,40 +3106,40 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F64" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G64" t="n">
         <v>19</v>
       </c>
       <c r="H64" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I64" t="n">
         <v>19</v>
       </c>
       <c r="J64" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K64" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L64" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M64" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -3149,40 +3149,40 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C65" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D65" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E65" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F65" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G65" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I65" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J65" t="n">
+        <v>45</v>
+      </c>
+      <c r="K65" t="n">
+        <v>42</v>
+      </c>
+      <c r="L65" t="n">
         <v>35</v>
       </c>
-      <c r="K65" t="n">
-        <v>30</v>
-      </c>
-      <c r="L65" t="n">
-        <v>27</v>
-      </c>
       <c r="M65" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -3192,40 +3192,40 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C66" t="n">
         <v>19</v>
       </c>
       <c r="D66" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E66" t="n">
         <v>22</v>
       </c>
       <c r="F66" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G66" t="n">
         <v>22</v>
       </c>
       <c r="H66" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I66" t="n">
         <v>21</v>
       </c>
       <c r="J66" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K66" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L66" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M66" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
@@ -3235,40 +3235,40 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D67" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F67" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G67" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I67" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J67" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K67" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L67" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M67" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -3278,40 +3278,40 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E68" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F68" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G68" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H68" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I68" t="n">
         <v>19</v>
       </c>
       <c r="J68" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K68" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L68" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M68" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
@@ -3321,40 +3321,40 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C69" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F69" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G69" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H69" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I69" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J69" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K69" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L69" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M69" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70">
@@ -3364,40 +3364,40 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C70" t="n">
         <v>22</v>
       </c>
       <c r="D70" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E70" t="n">
         <v>22</v>
       </c>
       <c r="F70" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G70" t="n">
         <v>21</v>
       </c>
       <c r="H70" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I70" t="n">
         <v>21</v>
       </c>
       <c r="J70" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K70" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M70" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
@@ -3407,40 +3407,40 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C71" t="n">
         <v>27</v>
       </c>
       <c r="D71" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E71" t="n">
         <v>24</v>
       </c>
       <c r="F71" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G71" t="n">
         <v>22</v>
       </c>
       <c r="H71" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I71" t="n">
         <v>21</v>
       </c>
       <c r="J71" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K71" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L71" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M71" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72">
@@ -3450,40 +3450,40 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C72" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E72" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F72" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H72" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J72" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K72" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L72" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M72" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
@@ -3493,40 +3493,40 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C73" t="n">
         <v>22</v>
       </c>
       <c r="D73" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E73" t="n">
         <v>20</v>
       </c>
       <c r="F73" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G73" t="n">
         <v>17</v>
       </c>
       <c r="H73" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I73" t="n">
         <v>19</v>
       </c>
       <c r="J73" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K73" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L73" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M73" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
@@ -3536,40 +3536,40 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D74" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E74" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F74" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G74" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H74" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I74" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J74" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L74" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M74" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75">
@@ -3579,40 +3579,40 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D75" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F75" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G75" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H75" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I75" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J75" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K75" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="L75" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M75" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
@@ -3622,40 +3622,40 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C76" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D76" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E76" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I76" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J76" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L76" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M76" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
@@ -3665,40 +3665,40 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C77" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D77" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E77" t="n">
         <v>22</v>
       </c>
       <c r="F77" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G77" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H77" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I77" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J77" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K77" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L77" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M77" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
@@ -3708,40 +3708,40 @@
         </is>
       </c>
       <c r="B78" t="n">
+        <v>20</v>
+      </c>
+      <c r="C78" t="n">
+        <v>18</v>
+      </c>
+      <c r="D78" t="n">
+        <v>18</v>
+      </c>
+      <c r="E78" t="n">
+        <v>22</v>
+      </c>
+      <c r="F78" t="n">
+        <v>21</v>
+      </c>
+      <c r="G78" t="n">
         <v>13</v>
       </c>
-      <c r="C78" t="n">
-        <v>18</v>
-      </c>
-      <c r="D78" t="n">
-        <v>13</v>
-      </c>
-      <c r="E78" t="n">
-        <v>22</v>
-      </c>
-      <c r="F78" t="n">
-        <v>13</v>
-      </c>
-      <c r="G78" t="n">
-        <v>9</v>
-      </c>
       <c r="H78" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I78" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J78" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K78" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L78" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M78" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
@@ -3751,40 +3751,40 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C79" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E79" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F79" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H79" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I79" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J79" t="n">
+        <v>43</v>
+      </c>
+      <c r="K79" t="n">
+        <v>47</v>
+      </c>
+      <c r="L79" t="n">
         <v>39</v>
       </c>
-      <c r="K79" t="n">
-        <v>43</v>
-      </c>
-      <c r="L79" t="n">
-        <v>34</v>
-      </c>
       <c r="M79" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80">
@@ -3794,40 +3794,40 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C80" t="n">
         <v>18</v>
       </c>
       <c r="D80" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E80" t="n">
         <v>19</v>
       </c>
       <c r="F80" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G80" t="n">
         <v>25</v>
       </c>
       <c r="H80" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I80" t="n">
         <v>25</v>
       </c>
       <c r="J80" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K80" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L80" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M80" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81">
@@ -3837,40 +3837,40 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D81" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E81" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G81" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H81" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I81" t="n">
         <v>22</v>
       </c>
       <c r="J81" t="n">
+        <v>43</v>
+      </c>
+      <c r="K81" t="n">
+        <v>41</v>
+      </c>
+      <c r="L81" t="n">
         <v>34</v>
       </c>
-      <c r="K81" t="n">
-        <v>29</v>
-      </c>
-      <c r="L81" t="n">
-        <v>31</v>
-      </c>
       <c r="M81" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
@@ -3880,40 +3880,40 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C82" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D82" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F82" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G82" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H82" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J82" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K82" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L82" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M82" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
@@ -3923,40 +3923,40 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C83" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D83" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F83" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G83" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H83" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I83" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J83" t="n">
+        <v>44</v>
+      </c>
+      <c r="K83" t="n">
+        <v>41</v>
+      </c>
+      <c r="L83" t="n">
         <v>35</v>
       </c>
-      <c r="K83" t="n">
-        <v>30</v>
-      </c>
-      <c r="L83" t="n">
-        <v>30</v>
-      </c>
       <c r="M83" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
@@ -3966,40 +3966,40 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C84" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D84" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H84" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I84" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J84" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K84" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L84" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M84" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85">
@@ -4009,40 +4009,40 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C85" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F85" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H85" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I85" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J85" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K85" t="n">
+        <v>40</v>
+      </c>
+      <c r="L85" t="n">
         <v>32</v>
       </c>
-      <c r="L85" t="n">
-        <v>24</v>
-      </c>
       <c r="M85" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
@@ -4052,40 +4052,40 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D86" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F86" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G86" t="n">
         <v>17</v>
       </c>
       <c r="H86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I86" t="n">
         <v>21</v>
       </c>
       <c r="J86" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K86" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L86" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M86" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -4098,37 +4098,37 @@
         <v>21</v>
       </c>
       <c r="C87" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D87" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G87" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H87" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I87" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J87" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K87" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L87" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M87" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
@@ -4138,40 +4138,40 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C88" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D88" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E88" t="n">
         <v>18</v>
       </c>
       <c r="F88" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H88" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I88" t="n">
         <v>13</v>
       </c>
       <c r="J88" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K88" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L88" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M88" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -4181,40 +4181,40 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C89" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D89" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E89" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F89" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G89" t="n">
         <v>24</v>
       </c>
       <c r="H89" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I89" t="n">
         <v>24</v>
       </c>
       <c r="J89" t="n">
+        <v>45</v>
+      </c>
+      <c r="K89" t="n">
         <v>41</v>
       </c>
-      <c r="K89" t="n">
-        <v>35</v>
-      </c>
       <c r="L89" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M89" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90">
@@ -4224,40 +4224,40 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C90" t="n">
+        <v>18</v>
+      </c>
+      <c r="D90" t="n">
+        <v>23</v>
+      </c>
+      <c r="E90" t="n">
+        <v>15</v>
+      </c>
+      <c r="F90" t="n">
+        <v>14</v>
+      </c>
+      <c r="G90" t="n">
+        <v>21</v>
+      </c>
+      <c r="H90" t="n">
         <v>13</v>
       </c>
-      <c r="D90" t="n">
-        <v>21</v>
-      </c>
-      <c r="E90" t="n">
-        <v>10</v>
-      </c>
-      <c r="F90" t="n">
-        <v>9</v>
-      </c>
-      <c r="G90" t="n">
-        <v>21</v>
-      </c>
-      <c r="H90" t="n">
-        <v>9</v>
-      </c>
       <c r="I90" t="n">
         <v>21</v>
       </c>
       <c r="J90" t="n">
+        <v>41</v>
+      </c>
+      <c r="K90" t="n">
+        <v>38</v>
+      </c>
+      <c r="L90" t="n">
+        <v>35</v>
+      </c>
+      <c r="M90" t="n">
         <v>34</v>
-      </c>
-      <c r="K90" t="n">
-        <v>31</v>
-      </c>
-      <c r="L90" t="n">
-        <v>30</v>
-      </c>
-      <c r="M90" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="91">
@@ -4267,40 +4267,40 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C91" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D91" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G91" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H91" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I91" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J91" t="n">
+        <v>38</v>
+      </c>
+      <c r="K91" t="n">
+        <v>33</v>
+      </c>
+      <c r="L91" t="n">
         <v>32</v>
       </c>
-      <c r="K91" t="n">
-        <v>30</v>
-      </c>
-      <c r="L91" t="n">
-        <v>26</v>
-      </c>
       <c r="M91" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
@@ -4310,40 +4310,40 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C92" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D92" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E92" t="n">
         <v>20</v>
       </c>
       <c r="F92" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G92" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I92" t="n">
         <v>18</v>
       </c>
       <c r="J92" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K92" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L92" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M92" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93">
@@ -4353,40 +4353,40 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C93" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E93" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F93" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G93" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H93" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I93" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J93" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K93" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L93" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M93" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
@@ -4396,40 +4396,40 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C94" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E94" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F94" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G94" t="n">
         <v>17</v>
       </c>
       <c r="H94" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I94" t="n">
         <v>17</v>
       </c>
       <c r="J94" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K94" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L94" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M94" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95">
@@ -4439,40 +4439,40 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C95" t="n">
         <v>23</v>
       </c>
       <c r="D95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E95" t="n">
         <v>19</v>
       </c>
       <c r="F95" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G95" t="n">
         <v>22</v>
       </c>
       <c r="H95" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I95" t="n">
         <v>22</v>
       </c>
       <c r="J95" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K95" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L95" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M95" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
@@ -4482,40 +4482,40 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C96" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E96" t="n">
         <v>23</v>
       </c>
       <c r="F96" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G96" t="n">
         <v>17</v>
       </c>
       <c r="H96" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I96" t="n">
         <v>22</v>
       </c>
       <c r="J96" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K96" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L96" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M96" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97">
@@ -4525,40 +4525,40 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C97" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D97" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E97" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F97" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G97" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H97" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I97" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J97" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K97" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L97" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M97" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98">
@@ -4568,40 +4568,40 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C98" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D98" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E98" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F98" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H98" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J98" t="n">
+        <v>42</v>
+      </c>
+      <c r="K98" t="n">
+        <v>41</v>
+      </c>
+      <c r="L98" t="n">
         <v>36</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>35</v>
-      </c>
-      <c r="L98" t="n">
-        <v>32</v>
-      </c>
-      <c r="M98" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -4611,40 +4611,40 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C99" t="n">
         <v>22</v>
       </c>
       <c r="D99" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E99" t="n">
         <v>22</v>
       </c>
       <c r="F99" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G99" t="n">
         <v>17</v>
       </c>
       <c r="H99" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I99" t="n">
         <v>21</v>
       </c>
       <c r="J99" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K99" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L99" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M99" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100">
@@ -4654,40 +4654,40 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C100" t="n">
         <v>27</v>
       </c>
       <c r="D100" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E100" t="n">
         <v>26</v>
       </c>
       <c r="F100" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G100" t="n">
         <v>22</v>
       </c>
       <c r="H100" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I100" t="n">
         <v>21</v>
       </c>
       <c r="J100" t="n">
+        <v>45</v>
+      </c>
+      <c r="K100" t="n">
+        <v>43</v>
+      </c>
+      <c r="L100" t="n">
         <v>40</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>39</v>
-      </c>
-      <c r="L100" t="n">
-        <v>35</v>
-      </c>
-      <c r="M100" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="101">
@@ -4697,40 +4697,40 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D101" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E101" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F101" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G101" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H101" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I101" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J101" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K101" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L101" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M101" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -4740,40 +4740,40 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C102" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D102" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E102" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F102" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G102" t="n">
         <v>24</v>
       </c>
       <c r="H102" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I102" t="n">
         <v>24</v>
       </c>
       <c r="J102" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K102" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L102" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M102" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
@@ -4783,40 +4783,40 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C103" t="n">
         <v>18</v>
       </c>
       <c r="D103" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E103" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F103" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G103" t="n">
         <v>13</v>
       </c>
       <c r="H103" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I103" t="n">
         <v>17</v>
       </c>
       <c r="J103" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K103" t="n">
+        <v>37</v>
+      </c>
+      <c r="L103" t="n">
         <v>32</v>
       </c>
-      <c r="L103" t="n">
-        <v>26</v>
-      </c>
       <c r="M103" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104">
@@ -4826,40 +4826,40 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C104" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E104" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F104" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G104" t="n">
         <v>18</v>
       </c>
       <c r="H104" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I104" t="n">
         <v>18</v>
       </c>
       <c r="J104" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K104" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L104" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M104" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -4869,40 +4869,40 @@
         </is>
       </c>
       <c r="B105" t="n">
+        <v>15</v>
+      </c>
+      <c r="C105" t="n">
         <v>13</v>
       </c>
-      <c r="C105" t="n">
-        <v>10</v>
-      </c>
       <c r="D105" t="n">
+        <v>15</v>
+      </c>
+      <c r="E105" t="n">
+        <v>19</v>
+      </c>
+      <c r="F105" t="n">
         <v>13</v>
       </c>
-      <c r="E105" t="n">
-        <v>15</v>
-      </c>
-      <c r="F105" t="n">
-        <v>9</v>
-      </c>
       <c r="G105" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H105" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J105" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K105" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L105" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M105" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
@@ -4912,40 +4912,40 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C106" t="n">
+        <v>15</v>
+      </c>
+      <c r="D106" t="n">
+        <v>18</v>
+      </c>
+      <c r="E106" t="n">
         <v>11</v>
       </c>
-      <c r="D106" t="n">
+      <c r="F106" t="n">
         <v>13</v>
       </c>
-      <c r="E106" t="n">
-        <v>9</v>
-      </c>
-      <c r="F106" t="n">
-        <v>9</v>
-      </c>
       <c r="G106" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H106" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I106" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J106" t="n">
+        <v>36</v>
+      </c>
+      <c r="K106" t="n">
+        <v>29</v>
+      </c>
+      <c r="L106" t="n">
+        <v>30</v>
+      </c>
+      <c r="M106" t="n">
         <v>28</v>
-      </c>
-      <c r="K106" t="n">
-        <v>22</v>
-      </c>
-      <c r="L106" t="n">
-        <v>24</v>
-      </c>
-      <c r="M106" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="107">
@@ -4955,40 +4955,40 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C107" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D107" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E107" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F107" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G107" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H107" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I107" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J107" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K107" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L107" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M107" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108">
@@ -4998,40 +4998,40 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C108" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D108" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E108" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F108" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G108" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H108" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I108" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J108" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K108" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L108" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M108" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
@@ -5041,40 +5041,40 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C109" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D109" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E109" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G109" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H109" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I109" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J109" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K109" t="n">
+        <v>44</v>
+      </c>
+      <c r="L109" t="n">
+        <v>43</v>
+      </c>
+      <c r="M109" t="n">
         <v>40</v>
-      </c>
-      <c r="L109" t="n">
-        <v>40</v>
-      </c>
-      <c r="M109" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -5084,40 +5084,40 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C110" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D110" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E110" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G110" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H110" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I110" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J110" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K110" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L110" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M110" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111">
@@ -5127,40 +5127,40 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C111" t="n">
         <v>22</v>
       </c>
       <c r="D111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E111" t="n">
         <v>22</v>
       </c>
       <c r="F111" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G111" t="n">
         <v>17</v>
       </c>
       <c r="H111" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I111" t="n">
         <v>21</v>
       </c>
       <c r="J111" t="n">
+        <v>38</v>
+      </c>
+      <c r="K111" t="n">
+        <v>37</v>
+      </c>
+      <c r="L111" t="n">
         <v>35</v>
       </c>
-      <c r="K111" t="n">
-        <v>35</v>
-      </c>
-      <c r="L111" t="n">
-        <v>30</v>
-      </c>
       <c r="M111" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112">
@@ -5170,40 +5170,40 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C112" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D112" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E112" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F112" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G112" t="n">
         <v>15</v>
       </c>
       <c r="H112" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I112" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J112" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K112" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L112" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M112" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113">
@@ -5213,40 +5213,40 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C113" t="n">
         <v>21</v>
       </c>
       <c r="D113" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E113" t="n">
         <v>18</v>
       </c>
       <c r="F113" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G113" t="n">
         <v>23</v>
       </c>
       <c r="H113" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I113" t="n">
         <v>23</v>
       </c>
       <c r="J113" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K113" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L113" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M113" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114">
@@ -5256,40 +5256,40 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C114" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D114" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E114" t="n">
         <v>22</v>
       </c>
       <c r="F114" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G114" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H114" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I114" t="n">
         <v>21</v>
       </c>
       <c r="J114" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K114" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L114" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M114" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115">
@@ -5299,40 +5299,40 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C115" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D115" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E115" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F115" t="n">
         <v>21</v>
       </c>
       <c r="G115" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H115" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I115" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J115" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K115" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="L115" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M115" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116">
@@ -5348,10 +5348,10 @@
         <v>21</v>
       </c>
       <c r="D116" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F116" t="n">
         <v>8</v>
@@ -5363,19 +5363,19 @@
         <v>8</v>
       </c>
       <c r="I116" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J116" t="n">
         <v>30</v>
       </c>
       <c r="K116" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L116" t="n">
         <v>26</v>
       </c>
       <c r="M116" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
@@ -5385,40 +5385,40 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C117" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D117" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E117" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F117" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G117" t="n">
         <v>19</v>
       </c>
       <c r="H117" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I117" t="n">
         <v>23</v>
       </c>
       <c r="J117" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K117" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L117" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M117" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118">
@@ -5428,40 +5428,40 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C118" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D118" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E118" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F118" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G118" t="n">
         <v>21</v>
       </c>
       <c r="H118" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I118" t="n">
         <v>21</v>
       </c>
       <c r="J118" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K118" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L118" t="n">
+        <v>43</v>
+      </c>
+      <c r="M118" t="n">
         <v>42</v>
-      </c>
-      <c r="M118" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="119">
@@ -5471,40 +5471,40 @@
         </is>
       </c>
       <c r="B119" t="n">
+        <v>17</v>
+      </c>
+      <c r="C119" t="n">
+        <v>21</v>
+      </c>
+      <c r="D119" t="n">
+        <v>16</v>
+      </c>
+      <c r="E119" t="n">
+        <v>23</v>
+      </c>
+      <c r="F119" t="n">
+        <v>18</v>
+      </c>
+      <c r="G119" t="n">
         <v>13</v>
       </c>
-      <c r="C119" t="n">
-        <v>20</v>
-      </c>
-      <c r="D119" t="n">
-        <v>13</v>
-      </c>
-      <c r="E119" t="n">
-        <v>22</v>
-      </c>
-      <c r="F119" t="n">
-        <v>13</v>
-      </c>
-      <c r="G119" t="n">
-        <v>11</v>
-      </c>
       <c r="H119" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J119" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K119" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L119" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M119" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
@@ -5514,40 +5514,40 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C120" t="n">
         <v>26</v>
       </c>
       <c r="D120" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E120" t="n">
         <v>23</v>
       </c>
       <c r="F120" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G120" t="n">
         <v>21</v>
       </c>
       <c r="H120" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I120" t="n">
         <v>21</v>
       </c>
       <c r="J120" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K120" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L120" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M120" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121">
@@ -5557,40 +5557,40 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C121" t="n">
         <v>28</v>
       </c>
       <c r="D121" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E121" t="n">
         <v>24</v>
       </c>
       <c r="F121" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G121" t="n">
         <v>23</v>
       </c>
       <c r="H121" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I121" t="n">
         <v>23</v>
       </c>
       <c r="J121" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K121" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L121" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M121" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122">
@@ -5600,40 +5600,40 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C122" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E122" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G122" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I122" t="n">
         <v>19</v>
       </c>
       <c r="J122" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K122" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L122" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M122" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123">
@@ -5643,40 +5643,40 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C123" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D123" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E123" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F123" t="n">
+        <v>15</v>
+      </c>
+      <c r="G123" t="n">
+        <v>20</v>
+      </c>
+      <c r="H123" t="n">
         <v>13</v>
       </c>
-      <c r="G123" t="n">
-        <v>19</v>
-      </c>
-      <c r="H123" t="n">
-        <v>9</v>
-      </c>
       <c r="I123" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J123" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K123" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L123" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M123" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
@@ -5686,40 +5686,40 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C124" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D124" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E124" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F124" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G124" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H124" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I124" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J124" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K124" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L124" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M124" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125">
@@ -5729,40 +5729,40 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C125" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D125" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E125" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F125" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G125" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H125" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I125" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J125" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K125" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L125" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M125" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126">
@@ -5772,40 +5772,40 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C126" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G126" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H126" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I126" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J126" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K126" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L126" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M126" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127">
@@ -5815,40 +5815,40 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C127" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D127" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E127" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H127" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I127" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J127" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K127" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L127" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M127" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128">
@@ -5858,40 +5858,40 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C128" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D128" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E128" t="n">
         <v>15</v>
       </c>
       <c r="F128" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G128" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H128" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I128" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J128" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K128" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L128" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M128" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129">
@@ -5901,40 +5901,40 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C129" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D129" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E129" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G129" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H129" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I129" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J129" t="n">
+        <v>40</v>
+      </c>
+      <c r="K129" t="n">
         <v>36</v>
       </c>
-      <c r="K129" t="n">
-        <v>33</v>
-      </c>
       <c r="L129" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M129" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130">
@@ -5944,40 +5944,40 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C130" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D130" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E130" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F130" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G130" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H130" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I130" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J130" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K130" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="L130" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M130" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131">
@@ -5987,40 +5987,40 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C131" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D131" t="n">
         <v>21</v>
       </c>
       <c r="E131" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F131" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G131" t="n">
+        <v>16</v>
+      </c>
+      <c r="H131" t="n">
+        <v>18</v>
+      </c>
+      <c r="I131" t="n">
         <v>14</v>
       </c>
-      <c r="H131" t="n">
-        <v>17</v>
-      </c>
-      <c r="I131" t="n">
-        <v>12</v>
-      </c>
       <c r="J131" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K131" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L131" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M131" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -6030,40 +6030,40 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C132" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D132" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E132" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F132" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G132" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H132" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I132" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J132" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K132" t="n">
+        <v>43</v>
+      </c>
+      <c r="L132" t="n">
         <v>35</v>
       </c>
-      <c r="L132" t="n">
-        <v>30</v>
-      </c>
       <c r="M132" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
@@ -6073,40 +6073,40 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C133" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D133" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E133" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G133" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H133" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I133" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J133" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K133" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L133" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M133" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134">
@@ -6119,37 +6119,37 @@
         <v>21</v>
       </c>
       <c r="C134" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D134" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E134" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F134" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G134" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H134" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I134" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J134" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K134" t="n">
+        <v>39</v>
+      </c>
+      <c r="L134" t="n">
         <v>34</v>
       </c>
-      <c r="L134" t="n">
-        <v>29</v>
-      </c>
       <c r="M134" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135">
@@ -6159,40 +6159,40 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C135" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D135" t="n">
+        <v>18</v>
+      </c>
+      <c r="E135" t="n">
+        <v>20</v>
+      </c>
+      <c r="F135" t="n">
+        <v>18</v>
+      </c>
+      <c r="G135" t="n">
         <v>13</v>
       </c>
-      <c r="E135" t="n">
-        <v>14</v>
-      </c>
-      <c r="F135" t="n">
-        <v>13</v>
-      </c>
-      <c r="G135" t="n">
-        <v>11</v>
-      </c>
       <c r="H135" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I135" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J135" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K135" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L135" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M135" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C136" t="n">
         <v>27</v>
       </c>
       <c r="D136" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E136" t="n">
         <v>23</v>
       </c>
       <c r="F136" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G136" t="n">
         <v>22</v>
       </c>
       <c r="H136" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I136" t="n">
         <v>22</v>
       </c>
       <c r="J136" t="n">
+        <v>48</v>
+      </c>
+      <c r="K136" t="n">
         <v>44</v>
       </c>
-      <c r="K136" t="n">
-        <v>40</v>
-      </c>
       <c r="L136" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M136" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137">
@@ -6245,40 +6245,40 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C137" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D137" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E137" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F137" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G137" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H137" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I137" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J137" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K137" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L137" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M137" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
@@ -6288,40 +6288,40 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C138" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D138" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E138" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F138" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G138" t="n">
         <v>20</v>
       </c>
       <c r="H138" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I138" t="n">
         <v>24</v>
       </c>
       <c r="J138" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K138" t="n">
+        <v>38</v>
+      </c>
+      <c r="L138" t="n">
         <v>31</v>
       </c>
-      <c r="L138" t="n">
-        <v>28</v>
-      </c>
       <c r="M138" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
@@ -6331,40 +6331,40 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C139" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D139" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E139" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F139" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G139" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H139" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I139" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J139" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K139" t="n">
+        <v>44</v>
+      </c>
+      <c r="L139" t="n">
         <v>38</v>
       </c>
-      <c r="L139" t="n">
-        <v>29</v>
-      </c>
       <c r="M139" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140">
@@ -6377,37 +6377,37 @@
         <v>21</v>
       </c>
       <c r="C140" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D140" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E140" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F140" t="n">
         <v>21</v>
       </c>
       <c r="G140" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H140" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I140" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J140" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K140" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L140" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M140" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
@@ -6417,40 +6417,40 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C141" t="n">
         <v>19</v>
       </c>
       <c r="D141" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E141" t="n">
         <v>21</v>
       </c>
       <c r="F141" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G141" t="n">
         <v>21</v>
       </c>
       <c r="H141" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I141" t="n">
         <v>25</v>
       </c>
       <c r="J141" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K141" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L141" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M141" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142">
@@ -6460,40 +6460,40 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C142" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D142" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E142" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F142" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G142" t="n">
         <v>16</v>
       </c>
       <c r="H142" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I142" t="n">
         <v>20</v>
       </c>
       <c r="J142" t="n">
+        <v>41</v>
+      </c>
+      <c r="K142" t="n">
         <v>35</v>
       </c>
-      <c r="K142" t="n">
-        <v>30</v>
-      </c>
       <c r="L142" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M142" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143">
@@ -6503,40 +6503,40 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C143" t="n">
+        <v>15</v>
+      </c>
+      <c r="D143" t="n">
+        <v>17</v>
+      </c>
+      <c r="E143" t="n">
+        <v>22</v>
+      </c>
+      <c r="F143" t="n">
+        <v>17</v>
+      </c>
+      <c r="G143" t="n">
         <v>14</v>
       </c>
-      <c r="D143" t="n">
-        <v>13</v>
-      </c>
-      <c r="E143" t="n">
-        <v>22</v>
-      </c>
-      <c r="F143" t="n">
-        <v>9</v>
-      </c>
-      <c r="G143" t="n">
-        <v>13</v>
-      </c>
       <c r="H143" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I143" t="n">
         <v>17</v>
       </c>
       <c r="J143" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K143" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L143" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M143" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
@@ -6546,40 +6546,40 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C144" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D144" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E144" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F144" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G144" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H144" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I144" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J144" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K144" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L144" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M144" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145">
@@ -6589,40 +6589,40 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C145" t="n">
         <v>24</v>
       </c>
       <c r="D145" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E145" t="n">
         <v>23</v>
       </c>
       <c r="F145" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G145" t="n">
         <v>19</v>
       </c>
       <c r="H145" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I145" t="n">
         <v>22</v>
       </c>
       <c r="J145" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K145" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L145" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M145" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146">
@@ -6632,40 +6632,40 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C146" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D146" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E146" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H146" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I146" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J146" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K146" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L146" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M146" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -6675,40 +6675,40 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C147" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D147" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E147" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G147" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H147" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I147" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J147" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K147" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L147" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M147" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148">
@@ -6718,40 +6718,40 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C148" t="n">
         <v>22</v>
       </c>
       <c r="D148" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E148" t="n">
         <v>20</v>
       </c>
       <c r="F148" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G148" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H148" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I148" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J148" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K148" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L148" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M148" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149">
@@ -6761,40 +6761,40 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C149" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D149" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E149" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F149" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G149" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H149" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I149" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J149" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K149" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L149" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M149" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150">
@@ -6804,40 +6804,40 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C150" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D150" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E150" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F150" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G150" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H150" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I150" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J150" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K150" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L150" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M150" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
@@ -6847,40 +6847,40 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D151" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E151" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F151" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G151" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H151" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I151" t="n">
         <v>17</v>
       </c>
       <c r="J151" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K151" t="n">
+        <v>41</v>
+      </c>
+      <c r="L151" t="n">
+        <v>36</v>
+      </c>
+      <c r="M151" t="n">
         <v>35</v>
-      </c>
-      <c r="L151" t="n">
-        <v>34</v>
-      </c>
-      <c r="M151" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="152">
@@ -6890,40 +6890,40 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C152" t="n">
         <v>22</v>
       </c>
       <c r="D152" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E152" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F152" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G152" t="n">
         <v>17</v>
       </c>
       <c r="H152" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I152" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J152" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K152" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L152" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M152" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
@@ -6933,40 +6933,40 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C153" t="n">
         <v>19</v>
       </c>
       <c r="D153" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E153" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F153" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G153" t="n">
         <v>13</v>
       </c>
       <c r="H153" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I153" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J153" t="n">
+        <v>32</v>
+      </c>
+      <c r="K153" t="n">
+        <v>34</v>
+      </c>
+      <c r="L153" t="n">
         <v>28</v>
       </c>
-      <c r="K153" t="n">
-        <v>25</v>
-      </c>
-      <c r="L153" t="n">
-        <v>22</v>
-      </c>
       <c r="M153" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154">
@@ -6976,40 +6976,40 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C154" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D154" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E154" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F154" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G154" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H154" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I154" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J154" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K154" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L154" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M154" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155">
@@ -7019,40 +7019,40 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C155" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D155" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E155" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G155" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I155" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J155" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K155" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L155" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M155" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156">
@@ -7062,40 +7062,40 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C156" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D156" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E156" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F156" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G156" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H156" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I156" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J156" t="n">
+        <v>46</v>
+      </c>
+      <c r="K156" t="n">
+        <v>42</v>
+      </c>
+      <c r="L156" t="n">
         <v>36</v>
       </c>
-      <c r="K156" t="n">
-        <v>32</v>
-      </c>
-      <c r="L156" t="n">
-        <v>24</v>
-      </c>
       <c r="M156" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
@@ -7105,13 +7105,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C157" t="n">
         <v>17</v>
       </c>
       <c r="D157" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E157" t="n">
         <v>17</v>
@@ -7123,22 +7123,22 @@
         <v>21</v>
       </c>
       <c r="H157" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I157" t="n">
         <v>21</v>
       </c>
       <c r="J157" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K157" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L157" t="n">
         <v>42</v>
       </c>
       <c r="M157" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C158" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D158" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E158" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F158" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G158" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H158" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I158" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J158" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K158" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="L158" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M158" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159">
@@ -7191,40 +7191,40 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C159" t="n">
         <v>18</v>
       </c>
       <c r="D159" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E159" t="n">
         <v>21</v>
       </c>
       <c r="F159" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G159" t="n">
         <v>21</v>
       </c>
       <c r="H159" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I159" t="n">
         <v>21</v>
       </c>
       <c r="J159" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K159" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L159" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M159" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160">
@@ -7234,40 +7234,40 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C160" t="n">
         <v>22</v>
       </c>
       <c r="D160" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E160" t="n">
         <v>23</v>
       </c>
       <c r="F160" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G160" t="n">
         <v>21</v>
       </c>
       <c r="H160" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I160" t="n">
         <v>21</v>
       </c>
       <c r="J160" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K160" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L160" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M160" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161">
@@ -7277,40 +7277,40 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C161" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D161" t="n">
+        <v>19</v>
+      </c>
+      <c r="E161" t="n">
+        <v>16</v>
+      </c>
+      <c r="F161" t="n">
         <v>13</v>
       </c>
-      <c r="E161" t="n">
-        <v>15</v>
-      </c>
-      <c r="F161" t="n">
-        <v>9</v>
-      </c>
       <c r="G161" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H161" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I161" t="n">
         <v>19</v>
       </c>
       <c r="J161" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K161" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L161" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M161" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162">
@@ -7320,40 +7320,40 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C162" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D162" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E162" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F162" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G162" t="n">
         <v>9</v>
       </c>
       <c r="H162" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I162" t="n">
         <v>17</v>
       </c>
       <c r="J162" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K162" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L162" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M162" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="163">
@@ -7363,40 +7363,40 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C163" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D163" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E163" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F163" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G163" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H163" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I163" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J163" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K163" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L163" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M163" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="164">
@@ -7406,40 +7406,40 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C164" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D164" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E164" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F164" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G164" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H164" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I164" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J164" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K164" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L164" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M164" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165">
@@ -7449,40 +7449,40 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C165" t="n">
         <v>25</v>
       </c>
       <c r="D165" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E165" t="n">
         <v>28</v>
       </c>
       <c r="F165" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G165" t="n">
         <v>20</v>
       </c>
       <c r="H165" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I165" t="n">
         <v>23</v>
       </c>
       <c r="J165" t="n">
+        <v>41</v>
+      </c>
+      <c r="K165" t="n">
+        <v>44</v>
+      </c>
+      <c r="L165" t="n">
         <v>38</v>
       </c>
-      <c r="K165" t="n">
-        <v>41</v>
-      </c>
-      <c r="L165" t="n">
-        <v>33</v>
-      </c>
       <c r="M165" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="166">
@@ -7495,37 +7495,37 @@
         <v>21</v>
       </c>
       <c r="C166" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D166" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E166" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F166" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G166" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H166" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I166" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J166" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K166" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L166" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M166" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167">
@@ -7535,40 +7535,40 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C167" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D167" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E167" t="n">
+        <v>15</v>
+      </c>
+      <c r="F167" t="n">
         <v>11</v>
       </c>
-      <c r="F167" t="n">
-        <v>9</v>
-      </c>
       <c r="G167" t="n">
         <v>20</v>
       </c>
       <c r="H167" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I167" t="n">
         <v>20</v>
       </c>
       <c r="J167" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K167" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L167" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M167" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
@@ -7578,40 +7578,40 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C168" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D168" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E168" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F168" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G168" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H168" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I168" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J168" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K168" t="n">
+        <v>43</v>
+      </c>
+      <c r="L168" t="n">
+        <v>34</v>
+      </c>
+      <c r="M168" t="n">
         <v>32</v>
-      </c>
-      <c r="L168" t="n">
-        <v>26</v>
-      </c>
-      <c r="M168" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="169">
@@ -7621,40 +7621,40 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C169" t="n">
         <v>24</v>
       </c>
       <c r="D169" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E169" t="n">
         <v>27</v>
       </c>
       <c r="F169" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G169" t="n">
         <v>19</v>
       </c>
       <c r="H169" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I169" t="n">
         <v>22</v>
       </c>
       <c r="J169" t="n">
+        <v>45</v>
+      </c>
+      <c r="K169" t="n">
+        <v>47</v>
+      </c>
+      <c r="L169" t="n">
         <v>41</v>
       </c>
-      <c r="K169" t="n">
-        <v>40</v>
-      </c>
-      <c r="L169" t="n">
-        <v>36</v>
-      </c>
       <c r="M169" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170">
@@ -7664,40 +7664,40 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C170" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D170" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E170" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F170" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G170" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H170" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I170" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J170" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K170" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L170" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M170" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171">
@@ -7707,40 +7707,40 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C171" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D171" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E171" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F171" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G171" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H171" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I171" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J171" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K171" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L171" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M171" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172">
@@ -7753,13 +7753,13 @@
         <v>21</v>
       </c>
       <c r="C172" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D172" t="n">
         <v>21</v>
       </c>
       <c r="E172" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F172" t="n">
         <v>21</v>
@@ -7771,19 +7771,19 @@
         <v>21</v>
       </c>
       <c r="I172" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J172" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K172" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L172" t="n">
         <v>34</v>
       </c>
       <c r="M172" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173">
@@ -7793,40 +7793,40 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C173" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D173" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E173" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G173" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H173" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I173" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J173" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K173" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L173" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M173" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="174">
@@ -7836,40 +7836,40 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C174" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D174" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E174" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F174" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G174" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H174" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I174" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J174" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K174" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L174" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M174" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175">
@@ -7879,40 +7879,40 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C175" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D175" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E175" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F175" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G175" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H175" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I175" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J175" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K175" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L175" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M175" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176">
@@ -7922,40 +7922,40 @@
         </is>
       </c>
       <c r="B176" t="n">
+        <v>16</v>
+      </c>
+      <c r="C176" t="n">
+        <v>23</v>
+      </c>
+      <c r="D176" t="n">
+        <v>15</v>
+      </c>
+      <c r="E176" t="n">
+        <v>20</v>
+      </c>
+      <c r="F176" t="n">
+        <v>15</v>
+      </c>
+      <c r="G176" t="n">
+        <v>21</v>
+      </c>
+      <c r="H176" t="n">
         <v>13</v>
       </c>
-      <c r="C176" t="n">
-        <v>22</v>
-      </c>
-      <c r="D176" t="n">
-        <v>13</v>
-      </c>
-      <c r="E176" t="n">
-        <v>19</v>
-      </c>
-      <c r="F176" t="n">
-        <v>9</v>
-      </c>
-      <c r="G176" t="n">
-        <v>21</v>
-      </c>
-      <c r="H176" t="n">
-        <v>9</v>
-      </c>
       <c r="I176" t="n">
         <v>21</v>
       </c>
       <c r="J176" t="n">
+        <v>39</v>
+      </c>
+      <c r="K176" t="n">
         <v>35</v>
       </c>
-      <c r="K176" t="n">
-        <v>32</v>
-      </c>
       <c r="L176" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M176" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177">
@@ -7965,40 +7965,40 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C177" t="n">
         <v>27</v>
       </c>
       <c r="D177" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E177" t="n">
         <v>23</v>
       </c>
       <c r="F177" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G177" t="n">
         <v>22</v>
       </c>
       <c r="H177" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I177" t="n">
         <v>22</v>
       </c>
       <c r="J177" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K177" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L177" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M177" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="178">
@@ -8011,37 +8011,37 @@
         <v>13</v>
       </c>
       <c r="C178" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D178" t="n">
+        <v>14</v>
+      </c>
+      <c r="E178" t="n">
+        <v>20</v>
+      </c>
+      <c r="F178" t="n">
+        <v>14</v>
+      </c>
+      <c r="G178" t="n">
+        <v>20</v>
+      </c>
+      <c r="H178" t="n">
         <v>13</v>
       </c>
-      <c r="E178" t="n">
-        <v>20</v>
-      </c>
-      <c r="F178" t="n">
-        <v>9</v>
-      </c>
-      <c r="G178" t="n">
-        <v>19</v>
-      </c>
-      <c r="H178" t="n">
-        <v>9</v>
-      </c>
       <c r="I178" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J178" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K178" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L178" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M178" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
